--- a/tests/test-files/test_merge/expected/clean_pos_output/sheet_4.xlsx
+++ b/tests/test-files/test_merge/expected/clean_pos_output/sheet_4.xlsx
@@ -470,7 +470,11 @@
           <t>proton_peak_index</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ppm</t>
+        </is>
+      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>polymer_name</t>
